--- a/biology/Botanique/Jardins_de_la_rotonde_de_Padoue/Jardins_de_la_rotonde_de_Padoue.xlsx
+++ b/biology/Botanique/Jardins_de_la_rotonde_de_Padoue/Jardins_de_la_rotonde_de_Padoue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les jardins de la rotonde, situés dans le centre-ville de Padoue, se trouvent à l'endroit où se tenait la chatte, qui, selon la légende, avait été écorchée vive afin que ses hurlements épouvantent les ennemis pendant le siège des Habsbourg en 1509
@@ -514,7 +526,9 @@
           <t>La Rotonde</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Rotonde a une capacité de 2 000 m3 et était, à l'époque de sa construction, l'un des meilleurs réservoirs d’Europe. 
 Sa structure est intéressante pour ses matériaux de construction parce qu'elle fut l'un des premiers exemples de construction en béton de Padoue.
@@ -548,7 +562,9 @@
           <t>Le jardin</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin présente plusieurs niveaux et pour monter au sommet il faut suivre un parcours caractérisé par de nombreuses marches et par cinq terrasses ornées de fontaines circulaires. La présence des fontaines s'explique par la proximité du grand réservoir d’eau. Dans chaque fontaine, on a des implanté des nymphéas dont la prolifération donne une sensation d'harmonie.
 Chaque terrasse est séparée de la suivante aux yeux des visiteurs par des séries de jardins et de parcours simulant un jardin géométrique de forme générale circulaire avec un axe perpendiculaire au château d’eau.
